--- a/Results/Weizmann/Results.xlsx
+++ b/Results/Weizmann/Results.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="24270" windowHeight="12435"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="24270" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SVM" sheetId="1" r:id="rId1"/>
+    <sheet name="NeuralNet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
   <si>
     <t>3D OS DES</t>
   </si>
@@ -75,6 +76,27 @@
   </si>
   <si>
     <t>SVM (-t 0 -b 1) - Linear Kernel</t>
+  </si>
+  <si>
+    <t>Algorithms</t>
+  </si>
+  <si>
+    <t># of hidden Layer = 1</t>
+  </si>
+  <si>
+    <t># of hidden Layer = 2</t>
+  </si>
+  <si>
+    <t># of hidden Layer = 3</t>
+  </si>
+  <si>
+    <t># of hidden Layer = 4</t>
+  </si>
+  <si>
+    <t># of hidden Layer = 5</t>
+  </si>
+  <si>
+    <t># of Hidden Neurons = Vocabulay Size</t>
   </si>
 </sst>
 </file>
@@ -578,11 +600,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4074,4 +4096,1503 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Q19" sqref="Q19:R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="45" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="T1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AC1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AL1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+    </row>
+    <row r="2" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>250</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
+      <c r="F3">
+        <v>750</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3">
+        <v>1250</v>
+      </c>
+      <c r="I3">
+        <v>1500</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>250</v>
+      </c>
+      <c r="N3">
+        <v>500</v>
+      </c>
+      <c r="O3">
+        <v>750</v>
+      </c>
+      <c r="P3">
+        <v>1000</v>
+      </c>
+      <c r="Q3">
+        <v>1250</v>
+      </c>
+      <c r="R3">
+        <v>1500</v>
+      </c>
+      <c r="T3">
+        <v>50</v>
+      </c>
+      <c r="U3">
+        <v>100</v>
+      </c>
+      <c r="V3">
+        <v>250</v>
+      </c>
+      <c r="W3">
+        <v>500</v>
+      </c>
+      <c r="X3">
+        <v>750</v>
+      </c>
+      <c r="Y3">
+        <v>1000</v>
+      </c>
+      <c r="Z3">
+        <v>1250</v>
+      </c>
+      <c r="AA3">
+        <v>1500</v>
+      </c>
+      <c r="AC3">
+        <v>50</v>
+      </c>
+      <c r="AD3">
+        <v>100</v>
+      </c>
+      <c r="AE3">
+        <v>250</v>
+      </c>
+      <c r="AF3">
+        <v>500</v>
+      </c>
+      <c r="AG3">
+        <v>750</v>
+      </c>
+      <c r="AH3">
+        <v>1000</v>
+      </c>
+      <c r="AI3">
+        <v>1250</v>
+      </c>
+      <c r="AJ3">
+        <v>1500</v>
+      </c>
+      <c r="AL3">
+        <v>50</v>
+      </c>
+      <c r="AM3">
+        <v>100</v>
+      </c>
+      <c r="AN3">
+        <v>250</v>
+      </c>
+      <c r="AO3">
+        <v>500</v>
+      </c>
+      <c r="AP3">
+        <v>750</v>
+      </c>
+      <c r="AQ3">
+        <v>1000</v>
+      </c>
+      <c r="AR3">
+        <v>1250</v>
+      </c>
+      <c r="AS3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>79</v>
+      </c>
+      <c r="C4">
+        <v>88</v>
+      </c>
+      <c r="D4">
+        <v>95</v>
+      </c>
+      <c r="E4">
+        <v>92</v>
+      </c>
+      <c r="F4">
+        <v>93</v>
+      </c>
+      <c r="G4">
+        <v>91</v>
+      </c>
+      <c r="H4">
+        <v>92</v>
+      </c>
+      <c r="I4">
+        <v>91</v>
+      </c>
+      <c r="K4">
+        <v>85.999999639999999</v>
+      </c>
+      <c r="L4">
+        <v>90.999999790000004</v>
+      </c>
+      <c r="M4">
+        <v>95</v>
+      </c>
+      <c r="N4">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="O4">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="P4">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="Q4">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="R4">
+        <v>90.999999790000004</v>
+      </c>
+      <c r="T4">
+        <v>82.000000479999997</v>
+      </c>
+      <c r="U4">
+        <v>89.999999399999993</v>
+      </c>
+      <c r="V4">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="W4">
+        <v>92.999999819999999</v>
+      </c>
+      <c r="X4">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="Y4">
+        <v>92.999999819999999</v>
+      </c>
+      <c r="Z4">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="AA4">
+        <v>10.00000015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>83.000000119999996</v>
+      </c>
+      <c r="C5">
+        <v>92.999999520000003</v>
+      </c>
+      <c r="D5">
+        <v>91.999999880000004</v>
+      </c>
+      <c r="E5">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="F5">
+        <v>92.999999819999999</v>
+      </c>
+      <c r="G5">
+        <v>90.999999790000004</v>
+      </c>
+      <c r="H5">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="I5">
+        <v>90.999999790000004</v>
+      </c>
+      <c r="K5">
+        <v>84.999999399999993</v>
+      </c>
+      <c r="L5">
+        <v>88.999999310000007</v>
+      </c>
+      <c r="M5">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="N5">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="O5">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="P5">
+        <v>90.999999790000004</v>
+      </c>
+      <c r="Q5">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="R5">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="T5">
+        <v>82.999999299999999</v>
+      </c>
+      <c r="U5">
+        <v>86.999999279999997</v>
+      </c>
+      <c r="V5">
+        <v>90.999999340000002</v>
+      </c>
+      <c r="W5">
+        <v>95</v>
+      </c>
+      <c r="X5">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="Y5">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="Z5">
+        <v>95</v>
+      </c>
+      <c r="AA5">
+        <v>10.00000015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>79.999999849999995</v>
+      </c>
+      <c r="C6">
+        <v>92.999999819999999</v>
+      </c>
+      <c r="D6">
+        <v>95</v>
+      </c>
+      <c r="E6">
+        <v>91.000000009999994</v>
+      </c>
+      <c r="F6">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="G6">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="H6">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="I6">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="K6">
+        <v>78.000000270000001</v>
+      </c>
+      <c r="L6">
+        <v>89.999999399999993</v>
+      </c>
+      <c r="M6">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="N6">
+        <v>92.999999819999999</v>
+      </c>
+      <c r="O6">
+        <v>95</v>
+      </c>
+      <c r="P6">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="Q6">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="R6">
+        <v>89.999999779999996</v>
+      </c>
+      <c r="T6">
+        <v>81.999999880000004</v>
+      </c>
+      <c r="U6">
+        <v>90.000000150000005</v>
+      </c>
+      <c r="V6">
+        <v>92.999999819999999</v>
+      </c>
+      <c r="W6">
+        <v>90.999999790000004</v>
+      </c>
+      <c r="X6">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="Y6">
+        <v>90.999999790000004</v>
+      </c>
+      <c r="Z6">
+        <v>10.00000015</v>
+      </c>
+      <c r="AA6">
+        <v>10.00000015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>82.999999819999999</v>
+      </c>
+      <c r="C7">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="D7">
+        <v>93.999999759999994</v>
+      </c>
+      <c r="E7">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="F7">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="G7">
+        <v>90.999999639999999</v>
+      </c>
+      <c r="H7">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="I7">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="K7">
+        <v>77.999999669999994</v>
+      </c>
+      <c r="L7">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="M7">
+        <v>90.999999340000002</v>
+      </c>
+      <c r="N7">
+        <v>90.999999790000004</v>
+      </c>
+      <c r="O7">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="P7">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="Q7">
+        <v>92.999999819999999</v>
+      </c>
+      <c r="R7">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="T7">
+        <v>86.999999880000004</v>
+      </c>
+      <c r="U7">
+        <v>89.999999110000005</v>
+      </c>
+      <c r="V7">
+        <v>92.999999819999999</v>
+      </c>
+      <c r="W7">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="X7">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="Y7">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="Z7">
+        <v>91.000000009999994</v>
+      </c>
+      <c r="AA7">
+        <v>94.000000060000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>78.000000420000006</v>
+      </c>
+      <c r="C9">
+        <v>85.000000600000007</v>
+      </c>
+      <c r="D9">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="E9">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="F9">
+        <v>85.99999785</v>
+      </c>
+      <c r="G9">
+        <v>93.999999759999994</v>
+      </c>
+      <c r="H9">
+        <v>92.999999819999999</v>
+      </c>
+      <c r="I9">
+        <v>70.000000749999998</v>
+      </c>
+      <c r="K9">
+        <v>82.000000479999997</v>
+      </c>
+      <c r="L9">
+        <v>88.000000119999996</v>
+      </c>
+      <c r="M9">
+        <v>93.999999759999994</v>
+      </c>
+      <c r="N9">
+        <v>92.999999819999999</v>
+      </c>
+      <c r="O9">
+        <v>93.999999759999994</v>
+      </c>
+      <c r="P9">
+        <v>92.999999819999999</v>
+      </c>
+      <c r="Q9">
+        <v>90.999999340000002</v>
+      </c>
+      <c r="R9">
+        <v>91.999999579999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>76.000000240000006</v>
+      </c>
+      <c r="C10">
+        <v>87.999999520000003</v>
+      </c>
+      <c r="D10">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="E10">
+        <v>93.999999759999994</v>
+      </c>
+      <c r="F10">
+        <v>95</v>
+      </c>
+      <c r="G10">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="H10">
+        <v>91.999999880000004</v>
+      </c>
+      <c r="I10">
+        <v>90.999999790000004</v>
+      </c>
+      <c r="K10">
+        <v>78.999999759999994</v>
+      </c>
+      <c r="L10">
+        <v>90.999999340000002</v>
+      </c>
+      <c r="M10">
+        <v>96.000000240000006</v>
+      </c>
+      <c r="N10">
+        <v>96.000000240000006</v>
+      </c>
+      <c r="O10">
+        <v>92.999999520000003</v>
+      </c>
+      <c r="P10">
+        <v>93.999999759999994</v>
+      </c>
+      <c r="Q10">
+        <v>91.999999880000004</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>76.999999579999994</v>
+      </c>
+      <c r="C11">
+        <v>88.999999540000005</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <v>95</v>
+      </c>
+      <c r="F11">
+        <v>95</v>
+      </c>
+      <c r="G11">
+        <v>95</v>
+      </c>
+      <c r="H11">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="I11">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="K11">
+        <v>80.000000150000005</v>
+      </c>
+      <c r="L11">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="M11">
+        <v>95</v>
+      </c>
+      <c r="N11">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="O11">
+        <v>95</v>
+      </c>
+      <c r="P11">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="Q11">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="R11">
+        <v>94.000000060000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>92.999999819999999</v>
+      </c>
+      <c r="E12">
+        <v>95</v>
+      </c>
+      <c r="F12">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="G12">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="H12">
+        <v>92.999999819999999</v>
+      </c>
+      <c r="I12">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="K12">
+        <v>78.000000119999996</v>
+      </c>
+      <c r="L12">
+        <v>95.999999639999999</v>
+      </c>
+      <c r="M12">
+        <v>96.000000240000006</v>
+      </c>
+      <c r="N12">
+        <v>95</v>
+      </c>
+      <c r="O12">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="P12">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="Q12">
+        <v>92.999999819999999</v>
+      </c>
+      <c r="R12">
+        <v>94.000000060000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>250</v>
+      </c>
+      <c r="E15">
+        <v>500</v>
+      </c>
+      <c r="F15">
+        <v>750</v>
+      </c>
+      <c r="G15">
+        <v>1000</v>
+      </c>
+      <c r="H15">
+        <v>1250</v>
+      </c>
+      <c r="I15">
+        <v>1500</v>
+      </c>
+      <c r="K15">
+        <v>50</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>250</v>
+      </c>
+      <c r="N15">
+        <v>500</v>
+      </c>
+      <c r="O15">
+        <v>750</v>
+      </c>
+      <c r="P15">
+        <v>1000</v>
+      </c>
+      <c r="Q15">
+        <v>1250</v>
+      </c>
+      <c r="R15">
+        <v>1500</v>
+      </c>
+      <c r="T15">
+        <v>50</v>
+      </c>
+      <c r="U15">
+        <v>100</v>
+      </c>
+      <c r="V15">
+        <v>250</v>
+      </c>
+      <c r="W15">
+        <v>500</v>
+      </c>
+      <c r="X15">
+        <v>750</v>
+      </c>
+      <c r="Y15">
+        <v>1000</v>
+      </c>
+      <c r="Z15">
+        <v>1250</v>
+      </c>
+      <c r="AA15">
+        <v>1500</v>
+      </c>
+      <c r="AC15">
+        <v>50</v>
+      </c>
+      <c r="AD15">
+        <v>100</v>
+      </c>
+      <c r="AE15">
+        <v>250</v>
+      </c>
+      <c r="AF15">
+        <v>500</v>
+      </c>
+      <c r="AG15">
+        <v>750</v>
+      </c>
+      <c r="AH15">
+        <v>1000</v>
+      </c>
+      <c r="AI15">
+        <v>1250</v>
+      </c>
+      <c r="AJ15">
+        <v>1500</v>
+      </c>
+      <c r="AL15">
+        <v>50</v>
+      </c>
+      <c r="AM15">
+        <v>100</v>
+      </c>
+      <c r="AN15">
+        <v>250</v>
+      </c>
+      <c r="AO15">
+        <v>500</v>
+      </c>
+      <c r="AP15">
+        <v>750</v>
+      </c>
+      <c r="AQ15">
+        <v>1000</v>
+      </c>
+      <c r="AR15">
+        <v>1250</v>
+      </c>
+      <c r="AS15">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>78.999999759999994</v>
+      </c>
+      <c r="C16">
+        <v>82.999999669999994</v>
+      </c>
+      <c r="D16">
+        <v>88.999999310000007</v>
+      </c>
+      <c r="E16">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="F16">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="G16">
+        <v>95</v>
+      </c>
+      <c r="H16">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="I16">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="K16">
+        <v>85.999999639999999</v>
+      </c>
+      <c r="L16">
+        <v>89.999999700000004</v>
+      </c>
+      <c r="M16">
+        <v>91.999999880000004</v>
+      </c>
+      <c r="N16">
+        <v>92.999999819999999</v>
+      </c>
+      <c r="O16">
+        <v>91.999999880000004</v>
+      </c>
+      <c r="P16">
+        <v>89.999999779999996</v>
+      </c>
+      <c r="Q16">
+        <v>91.999999880000004</v>
+      </c>
+      <c r="R16">
+        <v>92.000000029999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>83.000000119999996</v>
+      </c>
+      <c r="C17">
+        <v>83.99999991</v>
+      </c>
+      <c r="D17">
+        <v>87.999999900000006</v>
+      </c>
+      <c r="E17">
+        <v>96.000000240000006</v>
+      </c>
+      <c r="F17">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="G17">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="H17">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="I17">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="K17">
+        <v>84.999999399999993</v>
+      </c>
+      <c r="L17">
+        <v>86.999999579999994</v>
+      </c>
+      <c r="M17">
+        <v>92.999999819999999</v>
+      </c>
+      <c r="N17">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="O17">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="P17">
+        <v>89.999999779999996</v>
+      </c>
+      <c r="Q17">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="R17">
+        <v>93.000000119999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>79.999999849999995</v>
+      </c>
+      <c r="C18">
+        <v>83.999999169999995</v>
+      </c>
+      <c r="D18">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="E18">
+        <v>90.999999939999995</v>
+      </c>
+      <c r="F18">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="G18">
+        <v>90.999999790000004</v>
+      </c>
+      <c r="H18">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="I18">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="K18">
+        <v>78.000000270000001</v>
+      </c>
+      <c r="L18">
+        <v>85.999999790000004</v>
+      </c>
+      <c r="M18">
+        <v>88.99999991</v>
+      </c>
+      <c r="N18">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="O18">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="P18">
+        <v>90.999999790000004</v>
+      </c>
+      <c r="Q18">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="R18">
+        <v>92.000000029999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>82.999999819999999</v>
+      </c>
+      <c r="C19">
+        <v>88.999999459999998</v>
+      </c>
+      <c r="D19">
+        <v>85</v>
+      </c>
+      <c r="E19">
+        <v>91.999999880000004</v>
+      </c>
+      <c r="F19">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="G19">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="H19">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="I19">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="K19">
+        <v>77.999999669999994</v>
+      </c>
+      <c r="L19">
+        <v>84.999999700000004</v>
+      </c>
+      <c r="M19">
+        <v>87.999999900000006</v>
+      </c>
+      <c r="N19">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="O19">
+        <v>95</v>
+      </c>
+      <c r="P19">
+        <v>91.000000009999994</v>
+      </c>
+      <c r="Q19">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="R19">
+        <v>91.000000009999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>78.000000420000006</v>
+      </c>
+      <c r="C21">
+        <v>76.999999880000004</v>
+      </c>
+      <c r="D21">
+        <v>86.999999880000004</v>
+      </c>
+      <c r="E21">
+        <v>90.999999639999999</v>
+      </c>
+      <c r="F21">
+        <v>94.000000060000005</v>
+      </c>
+      <c r="G21">
+        <v>90.999999790000004</v>
+      </c>
+      <c r="H21">
+        <v>91.999999880000004</v>
+      </c>
+      <c r="I21">
+        <v>89.999999500000001</v>
+      </c>
+      <c r="K21">
+        <v>82.000000479999997</v>
+      </c>
+      <c r="L21">
+        <v>85.999999939999995</v>
+      </c>
+      <c r="M21">
+        <v>85.999999639999999</v>
+      </c>
+      <c r="N21">
+        <v>92.999999819999999</v>
+      </c>
+      <c r="O21">
+        <v>95</v>
+      </c>
+      <c r="P21">
+        <v>91.999999880000004</v>
+      </c>
+      <c r="Q21">
+        <v>89.999999549999998</v>
+      </c>
+      <c r="R21">
+        <v>89.999999549999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>76.000000240000006</v>
+      </c>
+      <c r="C22">
+        <v>80.999999790000004</v>
+      </c>
+      <c r="D22">
+        <v>85.999999939999995</v>
+      </c>
+      <c r="E22">
+        <v>88.999999759999994</v>
+      </c>
+      <c r="F22">
+        <v>88.999999540000005</v>
+      </c>
+      <c r="G22">
+        <v>91.999999880000004</v>
+      </c>
+      <c r="H22">
+        <v>91.999999880000004</v>
+      </c>
+      <c r="I22">
+        <v>91.999999880000004</v>
+      </c>
+      <c r="K22">
+        <v>78.999999759999994</v>
+      </c>
+      <c r="L22">
+        <v>80</v>
+      </c>
+      <c r="M22">
+        <v>84.999999399999993</v>
+      </c>
+      <c r="N22">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="O22">
+        <v>89.999999549999998</v>
+      </c>
+      <c r="P22">
+        <v>90.999999790000004</v>
+      </c>
+      <c r="Q22">
+        <v>90.000000150000005</v>
+      </c>
+      <c r="R22">
+        <v>90.999999790000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>76.999999579999994</v>
+      </c>
+      <c r="C23">
+        <v>86.999999579999994</v>
+      </c>
+      <c r="D23">
+        <v>88.999999759999994</v>
+      </c>
+      <c r="E23">
+        <v>89.999999549999998</v>
+      </c>
+      <c r="F23">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="G23">
+        <v>95</v>
+      </c>
+      <c r="H23">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="I23">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="K23">
+        <v>80.000000150000005</v>
+      </c>
+      <c r="L23">
+        <v>87.99999923</v>
+      </c>
+      <c r="M23">
+        <v>93.999999759999994</v>
+      </c>
+      <c r="N23">
+        <v>91.999999880000004</v>
+      </c>
+      <c r="O23">
+        <v>91.000000240000006</v>
+      </c>
+      <c r="P23">
+        <v>92.999999819999999</v>
+      </c>
+      <c r="Q23">
+        <v>90.999999790000004</v>
+      </c>
+      <c r="R23">
+        <v>93.000000119999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+      <c r="C24">
+        <v>83.99999991</v>
+      </c>
+      <c r="D24">
+        <v>90.999999790000004</v>
+      </c>
+      <c r="E24">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="F24">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="G24">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="H24">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="I24">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="K24">
+        <v>78.000000119999996</v>
+      </c>
+      <c r="L24">
+        <v>81.999999579999994</v>
+      </c>
+      <c r="M24">
+        <v>93.999999759999994</v>
+      </c>
+      <c r="N24">
+        <v>90.000000150000005</v>
+      </c>
+      <c r="O24">
+        <v>95</v>
+      </c>
+      <c r="P24">
+        <v>92.000000029999995</v>
+      </c>
+      <c r="Q24">
+        <v>93.000000119999996</v>
+      </c>
+      <c r="R24">
+        <v>92.000000029999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B14:AS14"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:R1"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="AL1:AS1"/>
+    <mergeCell ref="B2:AS2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="T4:AA7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:R7">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:I7">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T9:AA12">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:R12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:I12">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:I19">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:I24">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:R19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:R24">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/Weizmann/Results.xlsx
+++ b/Results/Weizmann/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="24270" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="24270" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SVM" sheetId="1" r:id="rId1"/>
@@ -63,13 +63,7 @@
     <t>BEST VOCABULARY ANALYSIS FOR AN ALGORITHM</t>
   </si>
   <si>
-    <t>BEST ALGORITHM (if a family) PERFORMANCE FOR A VOCABULARY</t>
-  </si>
-  <si>
     <t>OVERALL - BEST PERFORMER</t>
-  </si>
-  <si>
-    <t>OVERALL (if a family) - BEST PERFORMER</t>
   </si>
   <si>
     <t>SVM (-t 1 -d 2 -b 1) - Polynomial Kernel (Degree - 2)</t>
@@ -97,6 +91,12 @@
   </si>
   <si>
     <t># of Hidden Neurons = Vocabulay Size</t>
+  </si>
+  <si>
+    <t>BEST ALGORITHM (in a family) PERFORMANCE FOR A VOCABULARY</t>
+  </si>
+  <si>
+    <t>OVERALL (in a family) - BEST PERFORMER</t>
   </si>
 </sst>
 </file>
@@ -296,12 +296,6 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -318,6 +312,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,7 +604,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:A15"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,51 +613,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+      <c r="B1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="K1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="K2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -710,77 +710,77 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="K5" s="2" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="K5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>37</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>47</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>42</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>42</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>36</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>31</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>34</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <v>26</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="2">
         <v>34</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="3">
         <v>49</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="3">
         <v>42</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="3">
         <v>44</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="3">
         <v>38</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="3">
         <v>28</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="3">
         <v>32</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="4">
         <v>22</v>
       </c>
     </row>
@@ -788,52 +788,52 @@
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>37</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>50</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>43</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>33</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>37</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>38</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>34</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <v>32</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="2">
         <v>37</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="3">
         <v>44</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="3">
         <v>42</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="3">
         <v>31</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="3">
         <v>33</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="3">
         <v>26</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="3">
         <v>33</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="4">
         <v>30</v>
       </c>
     </row>
@@ -841,52 +841,52 @@
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>32</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>35</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>42</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>36</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>41</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>40</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>38</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
         <v>32</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="2">
         <v>28</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="3">
         <v>34</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="3">
         <v>44</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="3">
         <v>42</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="3">
         <v>41</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="3">
         <v>30</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="3">
         <v>29</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="4">
         <v>28</v>
       </c>
     </row>
@@ -894,52 +894,52 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>32</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>43</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>39</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>26</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>33</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>37</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>37</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>29</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="2">
         <v>32</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="3">
         <v>45</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="3">
         <v>43</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="3">
         <v>36</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="3">
         <v>34</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="3">
         <v>31</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="3">
         <v>29</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="4">
         <v>24</v>
       </c>
     </row>
@@ -947,52 +947,52 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>29</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>35</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>30</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>38</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>33</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>32</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>32</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="4">
         <v>25</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="2">
         <v>41</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="3">
         <v>43</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="3">
         <v>33</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="3">
         <v>34</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="3">
         <v>31</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="3">
         <v>31</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="3">
         <v>28</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="4">
         <v>25</v>
       </c>
     </row>
@@ -1000,52 +1000,52 @@
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>25</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>29</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>31</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>32</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>34</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <v>34</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="6">
         <v>37</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="7">
         <v>34</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="8">
         <v>42</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="9">
         <v>33</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="9">
         <v>33</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="9">
         <v>30</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="9">
         <v>36</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="9">
         <v>28</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="9">
         <v>27</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="10">
         <v>26</v>
       </c>
     </row>
@@ -1053,52 +1053,52 @@
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>34</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>35</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>31</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>23</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>26</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>27</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>27</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="4">
         <v>23</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="2">
         <v>24</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="3">
         <v>37</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="3">
         <v>31</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="3">
         <v>26</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="3">
         <v>31</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="3">
         <v>29</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="3">
         <v>25</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="4">
         <v>27</v>
       </c>
     </row>
@@ -1106,127 +1106,127 @@
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>29</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>25</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>31</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>31</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>27</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>32</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <v>28</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="4">
         <v>28</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="2">
         <v>27</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="3">
         <v>25</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="3">
         <v>28</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="3">
         <v>30</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="3">
         <v>28</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="3">
         <v>30</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="3">
         <v>27</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="4">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="K17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="B17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="K17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>37</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>47</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="11">
         <v>42</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="11">
         <v>42</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="11">
         <v>36</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="11">
         <v>31</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="11">
         <v>34</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="11">
         <v>26</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="11">
         <v>34</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="11">
         <v>49</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="11">
         <v>42</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="11">
         <v>44</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="11">
         <v>38</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="11">
         <v>28</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="11">
         <v>32</v>
       </c>
-      <c r="R19" s="13">
+      <c r="R19" s="11">
         <v>22</v>
       </c>
     </row>
@@ -1234,52 +1234,52 @@
       <c r="A20" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="12">
         <v>37</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="12">
         <v>50</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>43</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="12">
         <v>33</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="12">
         <v>37</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="12">
         <v>38</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="12">
         <v>34</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="12">
         <v>32</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="12">
         <v>37</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="12">
         <v>44</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="12">
         <v>42</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="12">
         <v>31</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="12">
         <v>33</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="12">
         <v>26</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q20" s="12">
         <v>33</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R20" s="12">
         <v>30</v>
       </c>
     </row>
@@ -1287,52 +1287,52 @@
       <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="12">
         <v>32</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="12">
         <v>35</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>42</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <v>36</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="12">
         <v>41</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="12">
         <v>40</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="12">
         <v>38</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="12">
         <v>32</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="12">
         <v>28</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="12">
         <v>34</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="12">
         <v>44</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="12">
         <v>42</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="12">
         <v>41</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="12">
         <v>30</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="12">
         <v>29</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R21" s="12">
         <v>28</v>
       </c>
     </row>
@@ -1340,52 +1340,52 @@
       <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="13">
         <v>32</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="13">
         <v>43</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="13">
         <v>39</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="13">
         <v>26</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="13">
         <v>33</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="13">
         <v>37</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="13">
         <v>37</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="13">
         <v>29</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="13">
         <v>32</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="13">
         <v>45</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="13">
         <v>43</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="13">
         <v>36</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="13">
         <v>34</v>
       </c>
-      <c r="P22" s="15">
+      <c r="P22" s="13">
         <v>31</v>
       </c>
-      <c r="Q22" s="15">
+      <c r="Q22" s="13">
         <v>29</v>
       </c>
-      <c r="R22" s="15">
+      <c r="R22" s="13">
         <v>24</v>
       </c>
     </row>
@@ -1393,52 +1393,52 @@
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="11">
         <v>29</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="11">
         <v>35</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="11">
         <v>30</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="11">
         <v>38</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="11">
         <v>33</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="11">
         <v>32</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="11">
         <v>32</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="11">
         <v>25</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="11">
         <v>41</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="11">
         <v>43</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="11">
         <v>33</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="11">
         <v>34</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="11">
         <v>31</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="11">
         <v>31</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="11">
         <v>28</v>
       </c>
-      <c r="R24" s="13">
+      <c r="R24" s="11">
         <v>25</v>
       </c>
     </row>
@@ -1446,52 +1446,52 @@
       <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="12">
         <v>25</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="12">
         <v>29</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <v>31</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="12">
         <v>32</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="12">
         <v>34</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="12">
         <v>34</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="12">
         <v>37</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="12">
         <v>34</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="12">
         <v>42</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="12">
         <v>33</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="12">
         <v>33</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="12">
         <v>30</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O25" s="12">
         <v>36</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="12">
         <v>28</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25" s="12">
         <v>27</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25" s="12">
         <v>26</v>
       </c>
     </row>
@@ -1499,52 +1499,52 @@
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="12">
         <v>34</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="12">
         <v>35</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="12">
         <v>31</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="12">
         <v>23</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="12">
         <v>26</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="12">
         <v>27</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="12">
         <v>27</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="12">
         <v>23</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="12">
         <v>24</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="12">
         <v>37</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26" s="12">
         <v>31</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="12">
         <v>26</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O26" s="12">
         <v>31</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P26" s="12">
         <v>29</v>
       </c>
-      <c r="Q26" s="14">
+      <c r="Q26" s="12">
         <v>25</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R26" s="12">
         <v>27</v>
       </c>
     </row>
@@ -1552,127 +1552,127 @@
       <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="13">
         <v>29</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="13">
         <v>25</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="13">
         <v>31</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="13">
         <v>31</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="13">
         <v>27</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="13">
         <v>32</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="13">
         <v>28</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="13">
         <v>28</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="13">
         <v>27</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="13">
         <v>25</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M27" s="13">
         <v>28</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N27" s="13">
         <v>30</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O27" s="13">
         <v>28</v>
       </c>
-      <c r="P27" s="15">
+      <c r="P27" s="13">
         <v>30</v>
       </c>
-      <c r="Q27" s="15">
+      <c r="Q27" s="13">
         <v>27</v>
       </c>
-      <c r="R27" s="15">
+      <c r="R27" s="13">
         <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="K29" s="2" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="K29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="11">
         <v>37</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="11">
         <v>47</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="11">
         <v>42</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="11">
         <v>42</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="11">
         <v>36</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="11">
         <v>31</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="11">
         <v>34</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="11">
         <v>26</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="11">
         <v>34</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="11">
         <v>49</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="11">
         <v>42</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="11">
         <v>44</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="11">
         <v>38</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="11">
         <v>28</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="11">
         <v>32</v>
       </c>
-      <c r="R31" s="13">
+      <c r="R31" s="11">
         <v>22</v>
       </c>
     </row>
@@ -1680,52 +1680,52 @@
       <c r="A32" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="12">
         <v>37</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="12">
         <v>50</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="12">
         <v>43</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="12">
         <v>33</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="12">
         <v>37</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="12">
         <v>38</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="12">
         <v>34</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="12">
         <v>32</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="12">
         <v>37</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="12">
         <v>44</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M32" s="12">
         <v>42</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N32" s="12">
         <v>31</v>
       </c>
-      <c r="O32" s="14">
+      <c r="O32" s="12">
         <v>33</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P32" s="12">
         <v>26</v>
       </c>
-      <c r="Q32" s="14">
+      <c r="Q32" s="12">
         <v>33</v>
       </c>
-      <c r="R32" s="14">
+      <c r="R32" s="12">
         <v>30</v>
       </c>
     </row>
@@ -1733,52 +1733,52 @@
       <c r="A33" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="12">
         <v>32</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="12">
         <v>35</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="12">
         <v>42</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="12">
         <v>36</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="12">
         <v>41</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="12">
         <v>40</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="12">
         <v>38</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="12">
         <v>32</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="12">
         <v>28</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="12">
         <v>34</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="12">
         <v>44</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N33" s="12">
         <v>42</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O33" s="12">
         <v>41</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33" s="12">
         <v>30</v>
       </c>
-      <c r="Q33" s="14">
+      <c r="Q33" s="12">
         <v>29</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R33" s="12">
         <v>28</v>
       </c>
     </row>
@@ -1786,123 +1786,123 @@
       <c r="A34" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="12">
         <v>32</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="12">
         <v>43</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="12">
         <v>39</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="12">
         <v>26</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="12">
         <v>33</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="12">
         <v>37</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="12">
         <v>37</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="12">
         <v>29</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="12">
         <v>32</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="12">
         <v>45</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M34" s="12">
         <v>43</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N34" s="12">
         <v>36</v>
       </c>
-      <c r="O34" s="14">
+      <c r="O34" s="12">
         <v>34</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P34" s="12">
         <v>31</v>
       </c>
-      <c r="Q34" s="14">
+      <c r="Q34" s="12">
         <v>29</v>
       </c>
-      <c r="R34" s="14">
+      <c r="R34" s="12">
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="12">
         <v>29</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="12">
         <v>35</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="12">
         <v>30</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="12">
         <v>38</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="12">
         <v>33</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="12">
         <v>32</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="12">
         <v>32</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="12">
         <v>25</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K36" s="12">
         <v>41</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="12">
         <v>43</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M36" s="12">
         <v>33</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N36" s="12">
         <v>34</v>
       </c>
-      <c r="O36" s="14">
+      <c r="O36" s="12">
         <v>31</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P36" s="12">
         <v>31</v>
       </c>
-      <c r="Q36" s="14">
+      <c r="Q36" s="12">
         <v>28</v>
       </c>
-      <c r="R36" s="14">
+      <c r="R36" s="12">
         <v>25</v>
       </c>
     </row>
@@ -1910,52 +1910,52 @@
       <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="12">
         <v>25</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="12">
         <v>29</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="12">
         <v>31</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="12">
         <v>32</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="12">
         <v>34</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="12">
         <v>34</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="12">
         <v>37</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="12">
         <v>34</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="12">
         <v>42</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="12">
         <v>33</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M37" s="12">
         <v>33</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N37" s="12">
         <v>30</v>
       </c>
-      <c r="O37" s="14">
+      <c r="O37" s="12">
         <v>36</v>
       </c>
-      <c r="P37" s="14">
+      <c r="P37" s="12">
         <v>28</v>
       </c>
-      <c r="Q37" s="14">
+      <c r="Q37" s="12">
         <v>27</v>
       </c>
-      <c r="R37" s="14">
+      <c r="R37" s="12">
         <v>26</v>
       </c>
     </row>
@@ -1963,52 +1963,52 @@
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="12">
         <v>34</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="12">
         <v>35</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="12">
         <v>31</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="12">
         <v>23</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="12">
         <v>26</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="12">
         <v>27</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="12">
         <v>27</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="12">
         <v>23</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="12">
         <v>24</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L38" s="12">
         <v>37</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M38" s="12">
         <v>31</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N38" s="12">
         <v>26</v>
       </c>
-      <c r="O38" s="14">
+      <c r="O38" s="12">
         <v>31</v>
       </c>
-      <c r="P38" s="14">
+      <c r="P38" s="12">
         <v>29</v>
       </c>
-      <c r="Q38" s="14">
+      <c r="Q38" s="12">
         <v>25</v>
       </c>
-      <c r="R38" s="14">
+      <c r="R38" s="12">
         <v>27</v>
       </c>
     </row>
@@ -2016,128 +2016,128 @@
       <c r="A39" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="13">
         <v>29</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="13">
         <v>25</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="13">
         <v>31</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="13">
         <v>31</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="13">
         <v>27</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="13">
         <v>32</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="13">
         <v>28</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I39" s="13">
         <v>28</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K39" s="13">
         <v>27</v>
       </c>
-      <c r="L39" s="15">
+      <c r="L39" s="13">
         <v>25</v>
       </c>
-      <c r="M39" s="15">
+      <c r="M39" s="13">
         <v>28</v>
       </c>
-      <c r="N39" s="15">
+      <c r="N39" s="13">
         <v>30</v>
       </c>
-      <c r="O39" s="15">
+      <c r="O39" s="13">
         <v>28</v>
       </c>
-      <c r="P39" s="15">
+      <c r="P39" s="13">
         <v>30</v>
       </c>
-      <c r="Q39" s="15">
+      <c r="Q39" s="13">
         <v>27</v>
       </c>
-      <c r="R39" s="15">
+      <c r="R39" s="13">
         <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="K41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
+      <c r="B41" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="K41" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="5">
         <v>37</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="6">
         <v>47</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="6">
         <v>42</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="6">
         <v>42</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="6">
         <v>36</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="6">
         <v>31</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="6">
         <v>34</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="7">
         <v>26</v>
       </c>
-      <c r="J43" s="17"/>
-      <c r="K43" s="7">
+      <c r="J43" s="15"/>
+      <c r="K43" s="5">
         <v>34</v>
       </c>
-      <c r="L43" s="8">
+      <c r="L43" s="6">
         <v>49</v>
       </c>
-      <c r="M43" s="8">
+      <c r="M43" s="6">
         <v>42</v>
       </c>
-      <c r="N43" s="8">
+      <c r="N43" s="6">
         <v>44</v>
       </c>
-      <c r="O43" s="8">
+      <c r="O43" s="6">
         <v>38</v>
       </c>
-      <c r="P43" s="8">
+      <c r="P43" s="6">
         <v>28</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="Q43" s="6">
         <v>32</v>
       </c>
-      <c r="R43" s="9">
+      <c r="R43" s="7">
         <v>22</v>
       </c>
     </row>
@@ -2145,53 +2145,53 @@
       <c r="A44" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="14">
         <v>37</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="15">
         <v>50</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="15">
         <v>43</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="15">
         <v>33</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="15">
         <v>37</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="15">
         <v>38</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="15">
         <v>34</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I44" s="16">
         <v>32</v>
       </c>
-      <c r="J44" s="17"/>
-      <c r="K44" s="16">
+      <c r="J44" s="15"/>
+      <c r="K44" s="14">
         <v>37</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L44" s="15">
         <v>44</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M44" s="15">
         <v>42</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N44" s="15">
         <v>31</v>
       </c>
-      <c r="O44" s="17">
+      <c r="O44" s="15">
         <v>33</v>
       </c>
-      <c r="P44" s="17">
+      <c r="P44" s="15">
         <v>26</v>
       </c>
-      <c r="Q44" s="17">
+      <c r="Q44" s="15">
         <v>33</v>
       </c>
-      <c r="R44" s="18">
+      <c r="R44" s="16">
         <v>30</v>
       </c>
     </row>
@@ -2199,53 +2199,53 @@
       <c r="A45" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="14">
         <v>32</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="15">
         <v>35</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="15">
         <v>42</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="15">
         <v>36</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="15">
         <v>41</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="15">
         <v>40</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="15">
         <v>38</v>
       </c>
-      <c r="I45" s="18">
+      <c r="I45" s="16">
         <v>32</v>
       </c>
-      <c r="J45" s="17"/>
-      <c r="K45" s="16">
+      <c r="J45" s="15"/>
+      <c r="K45" s="14">
         <v>28</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L45" s="15">
         <v>34</v>
       </c>
-      <c r="M45" s="17">
+      <c r="M45" s="15">
         <v>44</v>
       </c>
-      <c r="N45" s="17">
+      <c r="N45" s="15">
         <v>42</v>
       </c>
-      <c r="O45" s="17">
+      <c r="O45" s="15">
         <v>41</v>
       </c>
-      <c r="P45" s="17">
+      <c r="P45" s="15">
         <v>30</v>
       </c>
-      <c r="Q45" s="17">
+      <c r="Q45" s="15">
         <v>29</v>
       </c>
-      <c r="R45" s="18">
+      <c r="R45" s="16">
         <v>28</v>
       </c>
     </row>
@@ -2253,126 +2253,126 @@
       <c r="A46" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="8">
         <v>32</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="9">
         <v>43</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="9">
         <v>39</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="9">
         <v>26</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="9">
         <v>33</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="9">
         <v>37</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="9">
         <v>37</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="10">
         <v>29</v>
       </c>
-      <c r="J46" s="17"/>
-      <c r="K46" s="10">
+      <c r="J46" s="15"/>
+      <c r="K46" s="8">
         <v>32</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46" s="9">
         <v>45</v>
       </c>
-      <c r="M46" s="11">
+      <c r="M46" s="9">
         <v>43</v>
       </c>
-      <c r="N46" s="11">
+      <c r="N46" s="9">
         <v>36</v>
       </c>
-      <c r="O46" s="11">
+      <c r="O46" s="9">
         <v>34</v>
       </c>
-      <c r="P46" s="11">
+      <c r="P46" s="9">
         <v>31</v>
       </c>
-      <c r="Q46" s="11">
+      <c r="Q46" s="9">
         <v>29</v>
       </c>
-      <c r="R46" s="12">
+      <c r="R46" s="10">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="5">
         <v>29</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="6">
         <v>35</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="6">
         <v>30</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="6">
         <v>38</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="6">
         <v>33</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="6">
         <v>32</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="6">
         <v>32</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="7">
         <v>25</v>
       </c>
-      <c r="J48" s="17"/>
-      <c r="K48" s="7">
+      <c r="J48" s="15"/>
+      <c r="K48" s="5">
         <v>41</v>
       </c>
-      <c r="L48" s="8">
+      <c r="L48" s="6">
         <v>43</v>
       </c>
-      <c r="M48" s="8">
+      <c r="M48" s="6">
         <v>33</v>
       </c>
-      <c r="N48" s="8">
+      <c r="N48" s="6">
         <v>34</v>
       </c>
-      <c r="O48" s="8">
+      <c r="O48" s="6">
         <v>31</v>
       </c>
-      <c r="P48" s="8">
+      <c r="P48" s="6">
         <v>31</v>
       </c>
-      <c r="Q48" s="8">
+      <c r="Q48" s="6">
         <v>28</v>
       </c>
-      <c r="R48" s="9">
+      <c r="R48" s="7">
         <v>25</v>
       </c>
     </row>
@@ -2380,53 +2380,53 @@
       <c r="A49" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="14">
         <v>25</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="15">
         <v>29</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="15">
         <v>31</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="15">
         <v>32</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="15">
         <v>34</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="15">
         <v>34</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="15">
         <v>37</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I49" s="16">
         <v>34</v>
       </c>
-      <c r="J49" s="17"/>
-      <c r="K49" s="16">
+      <c r="J49" s="15"/>
+      <c r="K49" s="14">
         <v>42</v>
       </c>
-      <c r="L49" s="17">
+      <c r="L49" s="15">
         <v>33</v>
       </c>
-      <c r="M49" s="17">
+      <c r="M49" s="15">
         <v>33</v>
       </c>
-      <c r="N49" s="17">
+      <c r="N49" s="15">
         <v>30</v>
       </c>
-      <c r="O49" s="17">
+      <c r="O49" s="15">
         <v>36</v>
       </c>
-      <c r="P49" s="17">
+      <c r="P49" s="15">
         <v>28</v>
       </c>
-      <c r="Q49" s="17">
+      <c r="Q49" s="15">
         <v>27</v>
       </c>
-      <c r="R49" s="18">
+      <c r="R49" s="16">
         <v>26</v>
       </c>
     </row>
@@ -2434,53 +2434,53 @@
       <c r="A50" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="14">
         <v>34</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="15">
         <v>35</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="15">
         <v>31</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="15">
         <v>23</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="15">
         <v>26</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="15">
         <v>27</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="15">
         <v>27</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I50" s="16">
         <v>23</v>
       </c>
-      <c r="J50" s="17"/>
-      <c r="K50" s="16">
+      <c r="J50" s="15"/>
+      <c r="K50" s="14">
         <v>24</v>
       </c>
-      <c r="L50" s="17">
+      <c r="L50" s="15">
         <v>37</v>
       </c>
-      <c r="M50" s="17">
+      <c r="M50" s="15">
         <v>31</v>
       </c>
-      <c r="N50" s="17">
+      <c r="N50" s="15">
         <v>26</v>
       </c>
-      <c r="O50" s="17">
+      <c r="O50" s="15">
         <v>31</v>
       </c>
-      <c r="P50" s="17">
+      <c r="P50" s="15">
         <v>29</v>
       </c>
-      <c r="Q50" s="17">
+      <c r="Q50" s="15">
         <v>25</v>
       </c>
-      <c r="R50" s="18">
+      <c r="R50" s="16">
         <v>27</v>
       </c>
     </row>
@@ -2488,146 +2488,146 @@
       <c r="A51" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="8">
         <v>29</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="9">
         <v>25</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="9">
         <v>31</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="9">
         <v>31</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="9">
         <v>27</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="9">
         <v>32</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="9">
         <v>28</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I51" s="10">
         <v>28</v>
       </c>
-      <c r="J51" s="17"/>
-      <c r="K51" s="10">
+      <c r="J51" s="15"/>
+      <c r="K51" s="8">
         <v>27</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L51" s="9">
         <v>25</v>
       </c>
-      <c r="M51" s="11">
+      <c r="M51" s="9">
         <v>28</v>
       </c>
-      <c r="N51" s="11">
+      <c r="N51" s="9">
         <v>30</v>
       </c>
-      <c r="O51" s="11">
+      <c r="O51" s="9">
         <v>28</v>
       </c>
-      <c r="P51" s="11">
+      <c r="P51" s="9">
         <v>30</v>
       </c>
-      <c r="Q51" s="11">
+      <c r="Q51" s="9">
         <v>27</v>
       </c>
-      <c r="R51" s="12">
+      <c r="R51" s="10">
         <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="K53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
+      <c r="B53" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="K53" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="5">
         <v>37</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="6">
         <v>47</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="6">
         <v>42</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="6">
         <v>42</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="6">
         <v>36</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="6">
         <v>31</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="6">
         <v>34</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I55" s="7">
         <v>26</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55" s="5">
         <v>34</v>
       </c>
-      <c r="L55" s="8">
+      <c r="L55" s="6">
         <v>49</v>
       </c>
-      <c r="M55" s="8">
+      <c r="M55" s="6">
         <v>42</v>
       </c>
-      <c r="N55" s="8">
+      <c r="N55" s="6">
         <v>44</v>
       </c>
-      <c r="O55" s="8">
+      <c r="O55" s="6">
         <v>38</v>
       </c>
-      <c r="P55" s="8">
+      <c r="P55" s="6">
         <v>28</v>
       </c>
-      <c r="Q55" s="8">
+      <c r="Q55" s="6">
         <v>32</v>
       </c>
-      <c r="R55" s="9">
+      <c r="R55" s="7">
         <v>22</v>
       </c>
     </row>
@@ -2635,52 +2635,52 @@
       <c r="A56" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="14">
         <v>37</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="15">
         <v>50</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="15">
         <v>43</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="15">
         <v>33</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="15">
         <v>37</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="15">
         <v>38</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="15">
         <v>34</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I56" s="16">
         <v>32</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K56" s="14">
         <v>37</v>
       </c>
-      <c r="L56" s="17">
+      <c r="L56" s="15">
         <v>44</v>
       </c>
-      <c r="M56" s="17">
+      <c r="M56" s="15">
         <v>42</v>
       </c>
-      <c r="N56" s="17">
+      <c r="N56" s="15">
         <v>31</v>
       </c>
-      <c r="O56" s="17">
+      <c r="O56" s="15">
         <v>33</v>
       </c>
-      <c r="P56" s="17">
+      <c r="P56" s="15">
         <v>26</v>
       </c>
-      <c r="Q56" s="17">
+      <c r="Q56" s="15">
         <v>33</v>
       </c>
-      <c r="R56" s="18">
+      <c r="R56" s="16">
         <v>30</v>
       </c>
     </row>
@@ -2688,52 +2688,52 @@
       <c r="A57" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="14">
         <v>32</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="15">
         <v>35</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="15">
         <v>42</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="15">
         <v>36</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="15">
         <v>41</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G57" s="15">
         <v>40</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="15">
         <v>38</v>
       </c>
-      <c r="I57" s="18">
+      <c r="I57" s="16">
         <v>32</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K57" s="14">
         <v>28</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L57" s="15">
         <v>34</v>
       </c>
-      <c r="M57" s="17">
+      <c r="M57" s="15">
         <v>44</v>
       </c>
-      <c r="N57" s="17">
+      <c r="N57" s="15">
         <v>42</v>
       </c>
-      <c r="O57" s="17">
+      <c r="O57" s="15">
         <v>41</v>
       </c>
-      <c r="P57" s="17">
+      <c r="P57" s="15">
         <v>30</v>
       </c>
-      <c r="Q57" s="17">
+      <c r="Q57" s="15">
         <v>29</v>
       </c>
-      <c r="R57" s="18">
+      <c r="R57" s="16">
         <v>28</v>
       </c>
     </row>
@@ -2741,123 +2741,123 @@
       <c r="A58" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="14">
         <v>32</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="15">
         <v>43</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="15">
         <v>39</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="15">
         <v>26</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="15">
         <v>33</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="15">
         <v>37</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="15">
         <v>37</v>
       </c>
-      <c r="I58" s="18">
+      <c r="I58" s="16">
         <v>29</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K58" s="14">
         <v>32</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L58" s="15">
         <v>45</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M58" s="15">
         <v>43</v>
       </c>
-      <c r="N58" s="17">
+      <c r="N58" s="15">
         <v>36</v>
       </c>
-      <c r="O58" s="17">
+      <c r="O58" s="15">
         <v>34</v>
       </c>
-      <c r="P58" s="17">
+      <c r="P58" s="15">
         <v>31</v>
       </c>
-      <c r="Q58" s="17">
+      <c r="Q58" s="15">
         <v>29</v>
       </c>
-      <c r="R58" s="18">
+      <c r="R58" s="16">
         <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="18"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="18"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="16"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="16"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="14">
         <v>29</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="15">
         <v>35</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="15">
         <v>30</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="15">
         <v>38</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="15">
         <v>33</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G60" s="15">
         <v>32</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="15">
         <v>32</v>
       </c>
-      <c r="I60" s="18">
+      <c r="I60" s="16">
         <v>25</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K60" s="14">
         <v>41</v>
       </c>
-      <c r="L60" s="17">
+      <c r="L60" s="15">
         <v>43</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M60" s="15">
         <v>33</v>
       </c>
-      <c r="N60" s="17">
+      <c r="N60" s="15">
         <v>34</v>
       </c>
-      <c r="O60" s="17">
+      <c r="O60" s="15">
         <v>31</v>
       </c>
-      <c r="P60" s="17">
+      <c r="P60" s="15">
         <v>31</v>
       </c>
-      <c r="Q60" s="17">
+      <c r="Q60" s="15">
         <v>28</v>
       </c>
-      <c r="R60" s="18">
+      <c r="R60" s="16">
         <v>25</v>
       </c>
     </row>
@@ -2865,52 +2865,52 @@
       <c r="A61" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="14">
         <v>25</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C61" s="15">
         <v>29</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D61" s="15">
         <v>31</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E61" s="15">
         <v>32</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="15">
         <v>34</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G61" s="15">
         <v>34</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H61" s="15">
         <v>37</v>
       </c>
-      <c r="I61" s="18">
+      <c r="I61" s="16">
         <v>34</v>
       </c>
-      <c r="K61" s="16">
+      <c r="K61" s="14">
         <v>42</v>
       </c>
-      <c r="L61" s="17">
+      <c r="L61" s="15">
         <v>33</v>
       </c>
-      <c r="M61" s="17">
+      <c r="M61" s="15">
         <v>33</v>
       </c>
-      <c r="N61" s="17">
+      <c r="N61" s="15">
         <v>30</v>
       </c>
-      <c r="O61" s="17">
+      <c r="O61" s="15">
         <v>36</v>
       </c>
-      <c r="P61" s="17">
+      <c r="P61" s="15">
         <v>28</v>
       </c>
-      <c r="Q61" s="17">
+      <c r="Q61" s="15">
         <v>27</v>
       </c>
-      <c r="R61" s="18">
+      <c r="R61" s="16">
         <v>26</v>
       </c>
     </row>
@@ -2918,52 +2918,52 @@
       <c r="A62" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="14">
         <v>34</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="15">
         <v>35</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="15">
         <v>31</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="15">
         <v>23</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="15">
         <v>26</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="15">
         <v>27</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="15">
         <v>27</v>
       </c>
-      <c r="I62" s="18">
+      <c r="I62" s="16">
         <v>23</v>
       </c>
-      <c r="K62" s="16">
+      <c r="K62" s="14">
         <v>24</v>
       </c>
-      <c r="L62" s="17">
+      <c r="L62" s="15">
         <v>37</v>
       </c>
-      <c r="M62" s="17">
+      <c r="M62" s="15">
         <v>31</v>
       </c>
-      <c r="N62" s="17">
+      <c r="N62" s="15">
         <v>26</v>
       </c>
-      <c r="O62" s="17">
+      <c r="O62" s="15">
         <v>31</v>
       </c>
-      <c r="P62" s="17">
+      <c r="P62" s="15">
         <v>29</v>
       </c>
-      <c r="Q62" s="17">
+      <c r="Q62" s="15">
         <v>25</v>
       </c>
-      <c r="R62" s="18">
+      <c r="R62" s="16">
         <v>27</v>
       </c>
     </row>
@@ -2971,57 +2971,63 @@
       <c r="A63" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="8">
         <v>29</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="9">
         <v>25</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="9">
         <v>31</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E63" s="9">
         <v>31</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="9">
         <v>27</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G63" s="9">
         <v>32</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H63" s="9">
         <v>28</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I63" s="10">
         <v>28</v>
       </c>
-      <c r="K63" s="10">
+      <c r="K63" s="8">
         <v>27</v>
       </c>
-      <c r="L63" s="11">
+      <c r="L63" s="9">
         <v>25</v>
       </c>
-      <c r="M63" s="11">
+      <c r="M63" s="9">
         <v>28</v>
       </c>
-      <c r="N63" s="11">
+      <c r="N63" s="9">
         <v>30</v>
       </c>
-      <c r="O63" s="11">
+      <c r="O63" s="9">
         <v>28</v>
       </c>
-      <c r="P63" s="11">
+      <c r="P63" s="9">
         <v>30</v>
       </c>
-      <c r="Q63" s="11">
+      <c r="Q63" s="9">
         <v>27</v>
       </c>
-      <c r="R63" s="12">
+      <c r="R63" s="10">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:R1"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="K5:R5"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="K17:R17"/>
     <mergeCell ref="B53:I53"/>
@@ -3030,12 +3036,6 @@
     <mergeCell ref="K29:R29"/>
     <mergeCell ref="B41:I41"/>
     <mergeCell ref="K41:R41"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:R1"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="K5:R5"/>
   </mergeCells>
   <conditionalFormatting sqref="B7:I7">
     <cfRule type="colorScale" priority="70">
@@ -4106,1360 +4106,1374 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q19" sqref="Q19:R19"/>
+      <selection pane="bottomRight" activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="45" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="18" width="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5" customWidth="1"/>
+    <col min="20" max="36" width="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="45" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="K1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="T1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AC1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="T1" s="2" t="s">
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AL1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AC1" s="2" t="s">
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+    </row>
+    <row r="2" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AL1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-    </row>
-    <row r="2" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+    </row>
+    <row r="3" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
         <v>50</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>100</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>250</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>500</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>750</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>1000</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>1250</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>1500</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>50</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>100</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>250</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>500</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>750</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>1000</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>1250</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>1500</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>50</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>100</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="1">
         <v>250</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="1">
         <v>500</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="1">
         <v>750</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="1">
         <v>1000</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="1">
         <v>1250</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="1">
         <v>1500</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="1">
         <v>50</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="1">
         <v>100</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="1">
         <v>250</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="1">
         <v>500</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="1">
         <v>750</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="1">
         <v>1000</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="1">
         <v>1250</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="1">
         <v>1500</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="1">
         <v>50</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="1">
         <v>100</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="1">
         <v>250</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" s="1">
         <v>500</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" s="1">
         <v>750</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" s="1">
         <v>1000</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" s="1">
         <v>1250</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" s="1">
         <v>1500</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>79</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>88</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>95</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>92</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>93</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>91</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>92</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="7">
         <v>91</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="5">
         <v>85.999999639999999</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="6">
         <v>90.999999790000004</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="6">
         <v>95</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="6">
         <v>93.000000119999996</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="6">
         <v>94.000000060000005</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="6">
         <v>92.000000029999995</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="6">
         <v>92.000000029999995</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="7">
         <v>90.999999790000004</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="5">
         <v>82.000000479999997</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="6">
         <v>89.999999399999993</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="6">
         <v>94.000000060000005</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="6">
         <v>92.999999819999999</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="6">
         <v>93.000000119999996</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="6">
         <v>92.999999819999999</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="6">
         <v>92.000000029999995</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="7">
         <v>10.00000015</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="14">
         <v>83.000000119999996</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="15">
         <v>92.999999520000003</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="15">
         <v>91.999999880000004</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="15">
         <v>93.000000119999996</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="15">
         <v>92.999999819999999</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="15">
         <v>90.999999790000004</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="15">
         <v>94.000000060000005</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="16">
         <v>90.999999790000004</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="14">
         <v>84.999999399999993</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="15">
         <v>88.999999310000007</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="15">
         <v>93.000000119999996</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="15">
         <v>92.000000029999995</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="15">
         <v>92.000000029999995</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="15">
         <v>90.999999790000004</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="15">
         <v>93.000000119999996</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="16">
         <v>93.000000119999996</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="14">
         <v>82.999999299999999</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="15">
         <v>86.999999279999997</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="15">
         <v>90.999999340000002</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="15">
         <v>95</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="15">
         <v>92.000000029999995</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="15">
         <v>92.000000029999995</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="15">
         <v>95</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="16">
         <v>10.00000015</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="14">
         <v>79.999999849999995</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="15">
         <v>92.999999819999999</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="15">
         <v>95</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="15">
         <v>91.000000009999994</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="15">
         <v>93.000000119999996</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="15">
         <v>94.000000060000005</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="15">
         <v>92.000000029999995</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="16">
         <v>94.000000060000005</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="14">
         <v>78.000000270000001</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="15">
         <v>89.999999399999993</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="15">
         <v>93.000000119999996</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="15">
         <v>92.999999819999999</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="15">
         <v>95</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="15">
         <v>92.000000029999995</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="15">
         <v>93.000000119999996</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="16">
         <v>89.999999779999996</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="14">
         <v>81.999999880000004</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="15">
         <v>90.000000150000005</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="15">
         <v>92.999999819999999</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="15">
         <v>90.999999790000004</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="15">
         <v>93.000000119999996</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="15">
         <v>90.999999790000004</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="15">
         <v>10.00000015</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="16">
         <v>10.00000015</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>82.999999819999999</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>93.000000119999996</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="9">
         <v>93.999999759999994</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <v>92.000000029999995</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <v>92.000000029999995</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="9">
         <v>90.999999639999999</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="9">
         <v>92.000000029999995</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="10">
         <v>93.000000119999996</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="8">
         <v>77.999999669999994</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="9">
         <v>93.000000119999996</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="9">
         <v>90.999999340000002</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="9">
         <v>90.999999790000004</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="9">
         <v>93.000000119999996</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="9">
         <v>93.000000119999996</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="9">
         <v>92.999999819999999</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="10">
         <v>92.000000029999995</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="8">
         <v>86.999999880000004</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="9">
         <v>89.999999110000005</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="9">
         <v>92.999999819999999</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="9">
         <v>93.000000119999996</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="9">
         <v>93.000000119999996</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="9">
         <v>93.000000119999996</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="9">
         <v>91.000000009999994</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="10">
         <v>94.000000060000005</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>78.000000420000006</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>85.000000600000007</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>94.000000060000005</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>92.000000029999995</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>85.99999785</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <v>93.999999759999994</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <v>92.999999819999999</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="7">
         <v>70.000000749999998</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="5">
         <v>82.000000479999997</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="6">
         <v>88.000000119999996</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="6">
         <v>93.999999759999994</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="6">
         <v>92.999999819999999</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="6">
         <v>93.999999759999994</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="6">
         <v>92.999999819999999</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="6">
         <v>90.999999340000002</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="7">
         <v>91.999999579999994</v>
       </c>
+      <c r="T9" s="1"/>
+      <c r="AK9" s="1"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="14">
         <v>76.000000240000006</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="15">
         <v>87.999999520000003</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="15">
         <v>94.000000060000005</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="15">
         <v>93.999999759999994</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="15">
         <v>95</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="15">
         <v>94.000000060000005</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="15">
         <v>91.999999880000004</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="16">
         <v>90.999999790000004</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="14">
         <v>78.999999759999994</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="15">
         <v>90.999999340000002</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="15">
         <v>96.000000240000006</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="15">
         <v>96.000000240000006</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="15">
         <v>92.999999520000003</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="15">
         <v>93.999999759999994</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="15">
         <v>91.999999880000004</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="16">
         <v>10</v>
       </c>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="14">
         <v>76.999999579999994</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="15">
         <v>88.999999540000005</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="15">
         <v>95</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="15">
         <v>95</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="15">
         <v>95</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="15">
         <v>95</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="15">
         <v>94.000000060000005</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="16">
         <v>94.000000060000005</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="14">
         <v>80.000000150000005</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="15">
         <v>93.000000119999996</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="15">
         <v>95</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="15">
         <v>94.000000060000005</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="15">
         <v>95</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="15">
         <v>94.000000060000005</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="15">
         <v>94.000000060000005</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="16">
         <v>94.000000060000005</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>80</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="9">
         <v>90</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="9">
         <v>92.999999819999999</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="9">
         <v>95</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="9">
         <v>94.000000060000005</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="9">
         <v>94.000000060000005</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="9">
         <v>92.999999819999999</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="10">
         <v>93.000000119999996</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="8">
         <v>78.000000119999996</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="9">
         <v>95.999999639999999</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="9">
         <v>96.000000240000006</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="9">
         <v>95</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="9">
         <v>94.000000060000005</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="9">
         <v>94.000000060000005</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="9">
         <v>92.999999819999999</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="10">
         <v>94.000000060000005</v>
       </c>
     </row>
-    <row r="14" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
-      <c r="AK14" s="2"/>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="2"/>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="2"/>
-      <c r="AP14" s="2"/>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" s="2"/>
-      <c r="AS14" s="2"/>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
+    <row r="14" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="17"/>
+      <c r="AO14" s="17"/>
+      <c r="AP14" s="17"/>
+      <c r="AQ14" s="17"/>
+      <c r="AR14" s="17"/>
+      <c r="AS14" s="17"/>
+    </row>
+    <row r="15" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
         <v>50</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>100</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>250</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>500</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>750</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>1000</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>1250</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>1500</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>50</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <v>100</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <v>250</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <v>500</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="1">
         <v>750</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="1">
         <v>1000</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="1">
         <v>1250</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="1">
         <v>1500</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="1">
         <v>50</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="1">
         <v>100</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="1">
         <v>250</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="1">
         <v>500</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="1">
         <v>750</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="1">
         <v>1000</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="1">
         <v>1250</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="1">
         <v>1500</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="1">
         <v>50</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="1">
         <v>100</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="1">
         <v>250</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="1">
         <v>500</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="1">
         <v>750</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" s="1">
         <v>1000</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" s="1">
         <v>1250</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ15" s="1">
         <v>1500</v>
       </c>
-      <c r="AL15">
+      <c r="AL15" s="1">
         <v>50</v>
       </c>
-      <c r="AM15">
+      <c r="AM15" s="1">
         <v>100</v>
       </c>
-      <c r="AN15">
+      <c r="AN15" s="1">
         <v>250</v>
       </c>
-      <c r="AO15">
+      <c r="AO15" s="1">
         <v>500</v>
       </c>
-      <c r="AP15">
+      <c r="AP15" s="1">
         <v>750</v>
       </c>
-      <c r="AQ15">
+      <c r="AQ15" s="1">
         <v>1000</v>
       </c>
-      <c r="AR15">
+      <c r="AR15" s="1">
         <v>1250</v>
       </c>
-      <c r="AS15">
+      <c r="AS15" s="1">
         <v>1500</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>78.999999759999994</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>82.999999669999994</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>88.999999310000007</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>94.000000060000005</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <v>92.000000029999995</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="6">
         <v>95</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="6">
         <v>93.000000119999996</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="7">
         <v>93.000000119999996</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="5">
         <v>85.999999639999999</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="6">
         <v>89.999999700000004</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="6">
         <v>91.999999880000004</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="6">
         <v>92.999999819999999</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="6">
         <v>91.999999880000004</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="6">
         <v>89.999999779999996</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="6">
         <v>91.999999880000004</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="7">
         <v>92.000000029999995</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="14">
         <v>83.000000119999996</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="15">
         <v>83.99999991</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="15">
         <v>87.999999900000006</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="15">
         <v>96.000000240000006</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="15">
         <v>92.000000029999995</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="15">
         <v>94.000000060000005</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="15">
         <v>93.000000119999996</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="16">
         <v>92.000000029999995</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="14">
         <v>84.999999399999993</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="15">
         <v>86.999999579999994</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="15">
         <v>92.999999819999999</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="15">
         <v>93.000000119999996</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="15">
         <v>94.000000060000005</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="15">
         <v>89.999999779999996</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="15">
         <v>93.000000119999996</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="16">
         <v>93.000000119999996</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="14">
         <v>79.999999849999995</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="15">
         <v>83.999999169999995</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="15">
         <v>94.000000060000005</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="15">
         <v>90.999999939999995</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="15">
         <v>93.000000119999996</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="15">
         <v>90.999999790000004</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="15">
         <v>94.000000060000005</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="16">
         <v>93.000000119999996</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="14">
         <v>78.000000270000001</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="15">
         <v>85.999999790000004</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="15">
         <v>88.99999991</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="15">
         <v>93.000000119999996</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="15">
         <v>94.000000060000005</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="15">
         <v>90.999999790000004</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="15">
         <v>92.000000029999995</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="16">
         <v>92.000000029999995</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="8">
         <v>82.999999819999999</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="9">
         <v>88.999999459999998</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="9">
         <v>85</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="9">
         <v>91.999999880000004</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="9">
         <v>93.000000119999996</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="9">
         <v>94.000000060000005</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="9">
         <v>94.000000060000005</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="10">
         <v>93.000000119999996</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="8">
         <v>77.999999669999994</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="9">
         <v>84.999999700000004</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="9">
         <v>87.999999900000006</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="9">
         <v>92.000000029999995</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="9">
         <v>95</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="9">
         <v>91.000000009999994</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="9">
         <v>93.000000119999996</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="10">
         <v>91.000000009999994</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>78.000000420000006</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>76.999999880000004</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="6">
         <v>86.999999880000004</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>90.999999639999999</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="6">
         <v>94.000000060000005</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="6">
         <v>90.999999790000004</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="6">
         <v>91.999999880000004</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="7">
         <v>89.999999500000001</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="5">
         <v>82.000000479999997</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="6">
         <v>85.999999939999995</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="6">
         <v>85.999999639999999</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="6">
         <v>92.999999819999999</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="6">
         <v>95</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="6">
         <v>91.999999880000004</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="6">
         <v>89.999999549999998</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="7">
         <v>89.999999549999998</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="14">
         <v>76.000000240000006</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="15">
         <v>80.999999790000004</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="15">
         <v>85.999999939999995</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="15">
         <v>88.999999759999994</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="15">
         <v>88.999999540000005</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="15">
         <v>91.999999880000004</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="15">
         <v>91.999999880000004</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="16">
         <v>91.999999880000004</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="14">
         <v>78.999999759999994</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="15">
         <v>80</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="15">
         <v>84.999999399999993</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="15">
         <v>93.000000119999996</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="15">
         <v>89.999999549999998</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="15">
         <v>90.999999790000004</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="15">
         <v>90.000000150000005</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="16">
         <v>90.999999790000004</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="14">
         <v>76.999999579999994</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="15">
         <v>86.999999579999994</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="15">
         <v>88.999999759999994</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="15">
         <v>89.999999549999998</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="15">
         <v>93.000000119999996</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="15">
         <v>95</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="15">
         <v>92.000000029999995</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="16">
         <v>93.000000119999996</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="14">
         <v>80.000000150000005</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="15">
         <v>87.99999923</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="15">
         <v>93.999999759999994</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="15">
         <v>91.999999880000004</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="15">
         <v>91.000000240000006</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="15">
         <v>92.999999819999999</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="15">
         <v>90.999999790000004</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="16">
         <v>93.000000119999996</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="8">
         <v>80</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="9">
         <v>83.99999991</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="9">
         <v>90.999999790000004</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="9">
         <v>92.000000029999995</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="9">
         <v>92.000000029999995</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="9">
         <v>93.000000119999996</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="9">
         <v>93.000000119999996</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="10">
         <v>92.000000029999995</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="8">
         <v>78.000000119999996</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="9">
         <v>81.999999579999994</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="9">
         <v>93.999999759999994</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="9">
         <v>90.000000150000005</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="9">
         <v>95</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="9">
         <v>92.000000029999995</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="9">
         <v>93.000000119999996</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="10">
         <v>92.000000029999995</v>
       </c>
     </row>
@@ -5509,7 +5523,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T9:AA12">
+  <conditionalFormatting sqref="T12:AA12 T11 X11:AA11 Y10:AA10">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5594,5 +5608,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>